--- a/public/templates/1.xlsx
+++ b/public/templates/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huuduynvc/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10F75D0-5044-0A4C-91DB-32D8EA6A5E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6C3567-45C8-6D4C-831F-B4E3B58559BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" xr2:uid="{837AEA7C-E2A7-AF4B-84DF-A60663AE4AED}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{837AEA7C-E2A7-AF4B-84DF-A60663AE4AED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>studentid</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>Huỳnh Duy</t>
+  </si>
+  <si>
+    <t>Bài tập 2</t>
+  </si>
+  <si>
+    <t>Giữa kì</t>
+  </si>
+  <si>
+    <t>Cuối kì</t>
   </si>
 </sst>
 </file>
@@ -395,36 +404,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BBA327-2D70-EF49-B0DB-F680FBE68E44}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1712383</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
